--- a/src/test/resources/dataDriven/lretamozo/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/lretamozo/DataPrueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\Geolocalizacion\P-Geo\src\test\resources\dataDriven\LRETAMOZO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\lretamozo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9852AC-15D1-4946-AE79-9CF3454AC22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61492DB2-64DF-4A4B-86DA-946D4013522A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
   <si>
     <t>usar</t>
   </si>
@@ -70,18 +70,6 @@
     <t>En camino</t>
   </si>
   <si>
-    <t>ABA070</t>
-  </si>
-  <si>
-    <t>ABA071</t>
-  </si>
-  <si>
-    <t>ABA072</t>
-  </si>
-  <si>
-    <t>ABA073</t>
-  </si>
-  <si>
     <t>telefono</t>
   </si>
   <si>
@@ -137,6 +125,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ABA310</t>
+  </si>
+  <si>
+    <t>ABA311</t>
+  </si>
+  <si>
+    <t>ABA312</t>
+  </si>
+  <si>
+    <t>ABA313</t>
+  </si>
+  <si>
+    <t>ABA314</t>
+  </si>
+  <si>
+    <t>ABA315</t>
+  </si>
+  <si>
+    <t>ABA316</t>
+  </si>
+  <si>
+    <t>ABA317</t>
+  </si>
+  <si>
+    <t>ABA318</t>
   </si>
 </sst>
 </file>
@@ -594,7 +609,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,301 +640,295 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +994,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA070</v>
+        <v>ABA310</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1006,7 +1015,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA071</v>
+        <v>ABA311</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1027,7 +1036,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA072</v>
+        <v>ABA312</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1048,7 +1057,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA073</v>
+        <v>ABA313</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
